--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/主营业务收入.xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/主营业务收入.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1120.30048</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3900.77198</v>
-      </c>
-      <c r="D2" t="n">
-        <v>397.06788</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.01343</v>
-      </c>
-      <c r="F2" t="n">
-        <v>143.69404</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3278.20411</v>
-      </c>
-      <c r="H2" t="n">
-        <v>907.10903</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1069.00023</v>
-      </c>
-      <c r="J2" t="n">
-        <v>232.22366</v>
-      </c>
-      <c r="K2" t="n">
-        <v>538.67646</v>
-      </c>
-      <c r="L2" t="n">
-        <v>50120.3</v>
-      </c>
-      <c r="M2" t="n">
-        <v>55.38019</v>
-      </c>
-      <c r="N2" t="n">
-        <v>136.43607</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1493.41852</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1309.67818</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>144.49545</v>
-      </c>
-      <c r="R2" t="n">
-        <v>469.63797</v>
-      </c>
-      <c r="S2" t="n">
-        <v>169.38595</v>
-      </c>
-      <c r="T2" t="n">
-        <v>87.85595000000001</v>
-      </c>
-      <c r="U2" t="n">
-        <v>398.81701</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1306.38114</v>
-      </c>
-      <c r="W2" t="n">
-        <v>170.0796</v>
-      </c>
-      <c r="X2" t="n">
-        <v>917.04837</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>5523.1201</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>4351.15431</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>2407.83329</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>289.13448</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>3921.73497</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>2885.90307</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>2358.99229</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>191.58644</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>642.84222</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>628.55254</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1260.36811</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>103.97833</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>623.81722</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1375.37557</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1178.59997</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3862.36378</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>60.45778</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1162.20649</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4838.52121</v>
-      </c>
-      <c r="D3" t="n">
-        <v>521.54641</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.01124</v>
-      </c>
-      <c r="F3" t="n">
-        <v>205.88001</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3702.15146</v>
-      </c>
-      <c r="H3" t="n">
-        <v>730.36966</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1303.75757</v>
-      </c>
-      <c r="J3" t="n">
-        <v>295.24683</v>
-      </c>
-      <c r="K3" t="n">
-        <v>684.4465</v>
-      </c>
-      <c r="L3" t="n">
-        <v>58480.45</v>
-      </c>
-      <c r="M3" t="n">
-        <v>73.22409</v>
-      </c>
-      <c r="N3" t="n">
-        <v>164.29423</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1677.11377</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1427.34413</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>153.03326</v>
-      </c>
-      <c r="R3" t="n">
-        <v>620.86556</v>
-      </c>
-      <c r="S3" t="n">
-        <v>185.4097</v>
-      </c>
-      <c r="T3" t="n">
-        <v>76.15804</v>
-      </c>
-      <c r="U3" t="n">
-        <v>475.52041</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1648.57264</v>
-      </c>
-      <c r="W3" t="n">
-        <v>185.16186</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1144.27069</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>6308.19038</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>6706.67392</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>2891.64725</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>353.76654</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>4048.10104</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2578.9245</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>2462.07805</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>201.44378</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>840.8601</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>766.61905</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1480.46019</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>115.00401</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>762.92282</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1675.15427</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1261.01986</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4471.52975</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>66.38630000000001</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1384.92746</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6255.44183</v>
-      </c>
-      <c r="D4" t="n">
-        <v>592.53506</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.00054</v>
-      </c>
-      <c r="F4" t="n">
-        <v>210.41818</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4189.12521</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.10753</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1529.45728</v>
-      </c>
-      <c r="J4" t="n">
-        <v>312.82017</v>
-      </c>
-      <c r="K4" t="n">
-        <v>789.80511</v>
-      </c>
-      <c r="L4" t="n">
-        <v>66977.14</v>
-      </c>
-      <c r="M4" t="n">
-        <v>78.55569</v>
-      </c>
-      <c r="N4" t="n">
-        <v>187.57166</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2077.17814</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1533.91102</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>167.19074</v>
-      </c>
-      <c r="R4" t="n">
-        <v>666.84622</v>
-      </c>
-      <c r="S4" t="n">
-        <v>209.37419</v>
-      </c>
-      <c r="T4" t="n">
-        <v>78.69547</v>
-      </c>
-      <c r="U4" t="n">
-        <v>537.46596</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1894.25408</v>
-      </c>
-      <c r="W4" t="n">
-        <v>229.60036</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1475.83856</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>7392.66351</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>8002.06093</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>3136.20329</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>390.86276</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>4201.0427</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>2597.97921</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>2672.33146</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>220.59867</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>972.04176</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>890.53984</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1609.10988</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>133.88319</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>931.32555</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1898.11613</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1354.00106</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5071.70437</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>73.29761999999999</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
